--- a/biology/Botanique/Hibiscus_coccineus/Hibiscus_coccineus.xlsx
+++ b/biology/Botanique/Hibiscus_coccineus/Hibiscus_coccineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus coccineus ou Ketmie écarlate, Étoile du Texas, Hibiscus écarlate plus rarement Poinsettia d'été, est une espèce de plante vivace herbacée caduque de 1,5 à 2 m de hauteur. Elle est originaire des zones humides et des marais du sud-est des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles sont finement découpées, à lobe étroit, dentée et pointue les faisant ressembler à celles du cannabis.
 Les fleurs de 16 à 20 cm de diamètre et plus apparaissent de juillet à septembre. Elles ont 5 pétales spatulées et une durée de vie d'une journée.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus coccineus requiert une exposition en plein soleil et un sol humifère et bien humide (sauf en hiver) mais non stagnant. Il peut s'avérer sensible aux pucerons et cochenilles.
 </t>
@@ -576,7 +592,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme sauvage la plus souvent rencontrée en culture est rouge à jeunes feuilles teintés de rouge. La variété ‘Lord Baltimore’ présente des fleurs rouge profond.
 Hibiscus coccineus var. 'Alba' à des fleurs blanc pur. Il a été découvert aux États-Unis en 2005. Son origine est incertaine, peut être une mutation naturelle. Les jeunes tiges n'ont pas de teinte vert-rouge. Il est légèrement plus petit et plus florifère que l'Hibiscus coccineus rouge.[réf. nécessaire]
